--- a/F23_estado_sanitario.xlsx
+++ b/F23_estado_sanitario.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="142">
   <si>
     <t>barrio</t>
   </si>
@@ -442,6 +442,12 @@
   </si>
   <si>
     <t>Árboles</t>
+  </si>
+  <si>
+    <t>institucion</t>
+  </si>
+  <si>
+    <t>corredor</t>
   </si>
 </sst>
 </file>
@@ -4016,7 +4022,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4031,7 +4037,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -4046,7 +4052,7 @@
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="S2" t="s">
         <v>1</v>
@@ -4615,7 +4621,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -4630,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
@@ -4645,7 +4651,7 @@
         <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="S2" t="s">
         <v>1</v>
